--- a/DCISM_WBRMSystem/file/temp_inventory/LB 443 (183 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 443 (183 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 443</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -32047,7 +32047,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QtkkH8RpED4xf3qnXLLwFzSi8ggTJx+XcKzgGC9lkUmu8t423tn5iInLurXH9juguPNntogCO5ExL5KguZkXfQ==" saltValue="m6u6VlkRlnLGdYXO/GTxcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xwZt69mszvCc8q+JQ8aCcpOUGV/27vFF09pzPtnKJ/UpCsdWeRvek4cc01yjxs1uOu0JYTWlVb+1l38Mk+7mjA==" saltValue="5+cXAw76+2Ia6VSiNM9S3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
